--- a/data/trans_orig/Q03B_LAB-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_LAB-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE6B1914-0671-465D-8FD3-E06AAE52347F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C002511-01C6-4427-9AE0-6A1265C6E23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1551A402-68D3-4585-A39C-AAF42C9571F3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D2DF0256-D021-40C2-824E-1925C0946DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -3077,7 +3077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A3D18E-08EF-478A-A958-68B1B3EE0A95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773DF63F-01D2-407C-8464-5E81F686CA3E}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -7044,7 +7044,7 @@
         <v>3226</v>
       </c>
       <c r="I79" s="7">
-        <v>3305868</v>
+        <v>3305869</v>
       </c>
       <c r="J79" s="7" t="s">
         <v>148</v>
@@ -7092,7 +7092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF99F8B-385D-4969-AA12-BA4BA8748749}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EC1DC5-D0EE-4277-898B-4DDE14F0E1B7}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10804,7 +10804,7 @@
         <v>529</v>
       </c>
       <c r="I74" s="7">
-        <v>564753</v>
+        <v>564754</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>628</v>
@@ -10906,7 +10906,7 @@
         <v>688</v>
       </c>
       <c r="I76" s="7">
-        <v>752018</v>
+        <v>752019</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>371</v>
@@ -11059,7 +11059,7 @@
         <v>3276</v>
       </c>
       <c r="I79" s="7">
-        <v>3535496</v>
+        <v>3535497</v>
       </c>
       <c r="J79" s="7" t="s">
         <v>148</v>
@@ -11107,7 +11107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60782330-74B3-4EFD-960C-F18617FCE171}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47408A6B-FA38-4099-98EA-3D23BD23C996}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14987,7 +14987,7 @@
         <v>1361</v>
       </c>
       <c r="N77" s="7">
-        <v>1445214</v>
+        <v>1445213</v>
       </c>
       <c r="O77" s="7" t="s">
         <v>867</v>
@@ -15089,7 +15089,7 @@
         <v>6258</v>
       </c>
       <c r="N79" s="7">
-        <v>6602372</v>
+        <v>6602371</v>
       </c>
       <c r="O79" s="7" t="s">
         <v>148</v>
